--- a/biology/Zoologie/Chloroclystis_v-ata/Chloroclystis_v-ata.xlsx
+++ b/biology/Zoologie/Chloroclystis_v-ata/Chloroclystis_v-ata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chloroclystis v-ata, l’Eupithécie couronnée, parfois appelée Eupithécie de la salicaire[1], est une espèce de lépidoptères (papillons) de la famille des Geometridae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chloroclystis v-ata, l’Eupithécie couronnée, parfois appelée Eupithécie de la salicaire, est une espèce de lépidoptères (papillons) de la famille des Geometridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe et Asie jusqu'au Japon. Répandue en France.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago vole d'avril à septembre le long des haies, à la lisière des bois, en deux générations (en une seule, en Europe septentrionale).
 La chenille, polyphage, se nourrit de fleurs de nombreuses plantes basses : Clematis vitalba, ronces (Rubus), salicaire (Lythrum salicaria), Eupatorium cannabinum, valérianes (Valeriana)...
